--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449417.9232712267</v>
+        <v>514321.4049211309</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10331555.79867845</v>
+        <v>10438043.6205206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10969136.07141118</v>
+        <v>11027078.81211498</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7889760.540959398</v>
+        <v>7846480.831768093</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6263639150735023</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>22.56635248423082</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12.39383891054698</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>207.3488440918389</v>
       </c>
     </row>
     <row r="12">
@@ -1454,22 +1454,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.6691830755926</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>52.84789174411662</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.17372043046386</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
         <v>192.7632183107638</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>156.5831467345246</v>
       </c>
       <c r="T13" t="n">
         <v>221.3678187343026</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>125.680139496678</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>131.4233719058745</v>
       </c>
       <c r="E14" t="n">
-        <v>68.69079481677028</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6518003464459</v>
+        <v>411.7354738093681</v>
       </c>
       <c r="H14" t="n">
-        <v>302.0846418369296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>125.8243388547418</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0602718113751</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>30.61092372846464</v>
+        <v>135.4348628134694</v>
       </c>
       <c r="H15" t="n">
-        <v>93.36948473832146</v>
+        <v>93.80186143767975</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>135.399184512207</v>
+        <v>136.2307536864951</v>
       </c>
       <c r="T15" t="n">
-        <v>192.2910607662009</v>
+        <v>192.4715122588032</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8128673704968</v>
+        <v>225.8158127158603</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.43930209381968</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>96.69316487202549</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3908276674908</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.4762196778937</v>
+        <v>196.1303181134664</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.229701098716</v>
+        <v>286.2317483551653</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>41.79323539422847</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>63.69554683262802</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>29.45640590833652</v>
       </c>
       <c r="T17" t="n">
-        <v>207.1138721081947</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0535779343414</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3900935639446</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>22.14060103457869</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>101.8488983804699</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T18" t="n">
-        <v>192.2910607662009</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8128673704968</v>
+        <v>225.8092030868083</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>57.54882572755179</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.4762196778937</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.9482092359148</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.229701098716</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.2284867055206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6518003464459</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>207.1138721081947</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>207.2569917553224</v>
+        <v>250.7896155185618</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3900935639446</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>135.399184512207</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T21" t="n">
-        <v>192.2910607662009</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U21" t="n">
-        <v>214.4031822733385</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3532946325857</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>147.6666664901319</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.9482092359148</v>
+        <v>58.40676791482484</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>94.74317039722625</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25.15350521933682</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.547702772954</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>180.4174897749684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>222.3137757147427</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>202.2443414445152</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>219.9947660767239</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>142.1582519801138</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>105.5257324397443</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>130.4821714065997</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>44.13609843312059</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>75.73121691028274</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2271541212006</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>62.29617753351869</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>183.6273400079294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.1457046486336</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>137.1885407052901</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>122.0870627977171</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>17.61601726423379</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>18.50269015528357</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>138.1457046486332</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705217</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>136.7422396034694</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>16.25205340115019</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>272.085916417815</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>17.20228085844427</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705217</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>125.294214858566</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>110.1386360019713</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>298.5290786269213</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>298.5290786269214</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H42" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269742</v>
       </c>
       <c r="I42" t="n">
         <v>20.22295923705012</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>64.48055111631861</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.9832003248627</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
         <v>206.6581849802338</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>309.9975325271364</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>225.0132269816509</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>37.9449587022118</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.3387326418235</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>54.56191997791342</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>28.6828379631348</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.72300074896607</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>24.84391873418745</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.84391873418745</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>828.3627587750976</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="C11" t="n">
-        <v>459.4002418346859</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="D11" t="n">
-        <v>459.4002418346859</v>
+        <v>845.1884944329302</v>
       </c>
       <c r="E11" t="n">
         <v>459.4002418346859</v>
@@ -5068,25 +5068,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S11" t="n">
-        <v>2155.940797702085</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.940797702085</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U11" t="n">
-        <v>1902.333633364594</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V11" t="n">
-        <v>1571.270746021023</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W11" t="n">
-        <v>1218.502090750909</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="X11" t="n">
-        <v>1218.502090750909</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="Y11" t="n">
-        <v>828.3627587750976</v>
+        <v>1959.016550044214</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>672.4313145613985</v>
+        <v>533.4666540631165</v>
       </c>
       <c r="C12" t="n">
-        <v>497.9782852802715</v>
+        <v>359.0136247819895</v>
       </c>
       <c r="D12" t="n">
-        <v>497.9782852802715</v>
+        <v>229.0447529884617</v>
       </c>
       <c r="E12" t="n">
-        <v>338.740830274816</v>
+        <v>69.80729798300614</v>
       </c>
       <c r="F12" t="n">
-        <v>192.206272301701</v>
+        <v>69.80729798300614</v>
       </c>
       <c r="G12" t="n">
-        <v>138.8245634692599</v>
+        <v>69.80729798300614</v>
       </c>
       <c r="H12" t="n">
-        <v>43.36919653809315</v>
+        <v>69.80729798300614</v>
       </c>
       <c r="I12" t="n">
         <v>43.36919653809315</v>
@@ -5123,49 +5123,49 @@
         <v>89.55356510562345</v>
       </c>
       <c r="K12" t="n">
-        <v>440.901096563129</v>
+        <v>508.4654164929053</v>
       </c>
       <c r="L12" t="n">
-        <v>698.452232123117</v>
+        <v>892.714466136842</v>
       </c>
       <c r="M12" t="n">
-        <v>1018.359127591627</v>
+        <v>1212.621361605352</v>
       </c>
       <c r="N12" t="n">
-        <v>1361.141651586259</v>
+        <v>1555.403885599984</v>
       </c>
       <c r="O12" t="n">
-        <v>1652.500897840825</v>
+        <v>1846.76313185455</v>
       </c>
       <c r="P12" t="n">
-        <v>1867.009313401727</v>
+        <v>2061.271547415452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2168.459826904657</v>
+        <v>2154.745546059892</v>
       </c>
       <c r="R12" t="n">
         <v>2168.459826904657</v>
       </c>
       <c r="S12" t="n">
-        <v>2168.459826904657</v>
+        <v>2029.495166406375</v>
       </c>
       <c r="T12" t="n">
-        <v>1973.749505378633</v>
+        <v>1834.784844880351</v>
       </c>
       <c r="U12" t="n">
-        <v>1745.647915511898</v>
+        <v>1606.683255013616</v>
       </c>
       <c r="V12" t="n">
-        <v>1510.495807280155</v>
+        <v>1371.531146781873</v>
       </c>
       <c r="W12" t="n">
-        <v>1256.258450551953</v>
+        <v>1117.293790053671</v>
       </c>
       <c r="X12" t="n">
-        <v>1048.40695034642</v>
+        <v>909.4422898481384</v>
       </c>
       <c r="Y12" t="n">
-        <v>840.6466515814666</v>
+        <v>701.6819910831846</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C13" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D13" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E13" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F13" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G13" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H13" t="n">
         <v>43.36919653809315</v>
@@ -5223,28 +5223,28 @@
         <v>1486.355378693649</v>
       </c>
       <c r="R13" t="n">
-        <v>1377.190882465731</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="S13" t="n">
-        <v>1377.190882465731</v>
+        <v>1328.190584012311</v>
       </c>
       <c r="T13" t="n">
-        <v>1153.587025158355</v>
+        <v>1104.586726704934</v>
       </c>
       <c r="U13" t="n">
-        <v>864.4607041323782</v>
+        <v>815.460405678958</v>
       </c>
       <c r="V13" t="n">
-        <v>609.7762159264913</v>
+        <v>560.7759174730711</v>
       </c>
       <c r="W13" t="n">
-        <v>320.3590458895307</v>
+        <v>271.3587474361105</v>
       </c>
       <c r="X13" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1977.252884023959</v>
+        <v>1375.261446966771</v>
       </c>
       <c r="C14" t="n">
-        <v>1608.290367083548</v>
+        <v>1006.298930026359</v>
       </c>
       <c r="D14" t="n">
-        <v>1250.024668476797</v>
+        <v>873.5480493133548</v>
       </c>
       <c r="E14" t="n">
-        <v>1180.640027247736</v>
+        <v>873.5480493133548</v>
       </c>
       <c r="F14" t="n">
-        <v>769.6541224581288</v>
+        <v>462.5621445237472</v>
       </c>
       <c r="G14" t="n">
-        <v>353.8442231182844</v>
+        <v>46.66772653448652</v>
       </c>
       <c r="H14" t="n">
-        <v>48.70822126279992</v>
+        <v>46.66772653448652</v>
       </c>
       <c r="I14" t="n">
-        <v>48.70822126279992</v>
+        <v>46.66772653448652</v>
       </c>
       <c r="J14" t="n">
-        <v>176.2428170171994</v>
+        <v>167.1716585209301</v>
       </c>
       <c r="K14" t="n">
-        <v>418.1226343655923</v>
+        <v>398.5143333927249</v>
       </c>
       <c r="L14" t="n">
-        <v>755.0976981207359</v>
+        <v>722.4171401477743</v>
       </c>
       <c r="M14" t="n">
-        <v>1161.716822136105</v>
+        <v>1114.490859496269</v>
       </c>
       <c r="N14" t="n">
-        <v>1579.529277064082</v>
+        <v>1517.522549903109</v>
       </c>
       <c r="O14" t="n">
-        <v>1960.722469238773</v>
+        <v>1884.758685273626</v>
       </c>
       <c r="P14" t="n">
-        <v>2251.561038684725</v>
+        <v>2163.685229645137</v>
       </c>
       <c r="Q14" t="n">
-        <v>2421.795945472545</v>
+        <v>2324.974701690508</v>
       </c>
       <c r="R14" t="n">
-        <v>2435.411063139996</v>
+        <v>2333.386326724326</v>
       </c>
       <c r="S14" t="n">
-        <v>2308.31577136753</v>
+        <v>2333.386326724326</v>
       </c>
       <c r="T14" t="n">
-        <v>2308.31577136753</v>
+        <v>2333.386326724326</v>
       </c>
       <c r="U14" t="n">
-        <v>2308.31577136753</v>
+        <v>2079.790092571422</v>
       </c>
       <c r="V14" t="n">
-        <v>1977.252884023959</v>
+        <v>1748.727205227851</v>
       </c>
       <c r="W14" t="n">
-        <v>1977.252884023959</v>
+        <v>1748.727205227851</v>
       </c>
       <c r="X14" t="n">
-        <v>1977.252884023959</v>
+        <v>1375.261446966771</v>
       </c>
       <c r="Y14" t="n">
-        <v>1977.252884023959</v>
+        <v>1375.261446966771</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>803.1004090087852</v>
+        <v>907.3794251737678</v>
       </c>
       <c r="C15" t="n">
-        <v>628.6473797276582</v>
+        <v>732.9263958926408</v>
       </c>
       <c r="D15" t="n">
-        <v>479.7129700664069</v>
+        <v>583.9919862313895</v>
       </c>
       <c r="E15" t="n">
-        <v>320.4755150609514</v>
+        <v>424.7545312259341</v>
       </c>
       <c r="F15" t="n">
-        <v>173.9409570878364</v>
+        <v>278.219973252819</v>
       </c>
       <c r="G15" t="n">
-        <v>143.0208321095893</v>
+        <v>141.4170815220418</v>
       </c>
       <c r="H15" t="n">
-        <v>48.70822126279992</v>
+        <v>46.66772653448652</v>
       </c>
       <c r="I15" t="n">
-        <v>48.70822126279992</v>
+        <v>46.66772653448652</v>
       </c>
       <c r="J15" t="n">
-        <v>105.8491058376799</v>
+        <v>99.62119593404039</v>
       </c>
       <c r="K15" t="n">
-        <v>451.2850246522235</v>
+        <v>268.2819341673153</v>
       </c>
       <c r="L15" t="n">
-        <v>734.0161576563341</v>
+        <v>845.7950500315859</v>
       </c>
       <c r="M15" t="n">
-        <v>1083.306922478383</v>
+        <v>1183.855743144866</v>
       </c>
       <c r="N15" t="n">
-        <v>1456.251019413911</v>
+        <v>1676.00803145035</v>
       </c>
       <c r="O15" t="n">
-        <v>1775.202212367827</v>
+        <v>1984.413998508722</v>
       </c>
       <c r="P15" t="n">
-        <v>2327.133738657485</v>
+        <v>2212.60391038013</v>
       </c>
       <c r="Q15" t="n">
-        <v>2435.411063139996</v>
+        <v>2315.223626986374</v>
       </c>
       <c r="R15" t="n">
-        <v>2435.411063139996</v>
+        <v>2333.386326724326</v>
       </c>
       <c r="S15" t="n">
-        <v>2298.644210097363</v>
+        <v>2195.779504818775</v>
       </c>
       <c r="T15" t="n">
-        <v>2104.410815384028</v>
+        <v>2001.363835870489</v>
       </c>
       <c r="U15" t="n">
-        <v>1876.317009959284</v>
+        <v>1773.267055349418</v>
       </c>
       <c r="V15" t="n">
-        <v>1641.164901727542</v>
+        <v>1538.114947117676</v>
       </c>
       <c r="W15" t="n">
-        <v>1386.92754499934</v>
+        <v>1491.206561164322</v>
       </c>
       <c r="X15" t="n">
-        <v>1179.076044793807</v>
+        <v>1283.35506095879</v>
       </c>
       <c r="Y15" t="n">
-        <v>971.3157460288533</v>
+        <v>1075.594762193836</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>591.2977652625356</v>
+        <v>509.5423107132655</v>
       </c>
       <c r="C16" t="n">
-        <v>493.6279017554391</v>
+        <v>509.5423107132655</v>
       </c>
       <c r="D16" t="n">
-        <v>343.5112623431034</v>
+        <v>509.5423107132655</v>
       </c>
       <c r="E16" t="n">
-        <v>195.5981687607103</v>
+        <v>361.6292171308724</v>
       </c>
       <c r="F16" t="n">
-        <v>48.70822126279992</v>
+        <v>214.739269632962</v>
       </c>
       <c r="G16" t="n">
-        <v>48.70822126279992</v>
+        <v>46.66772653448652</v>
       </c>
       <c r="H16" t="n">
-        <v>48.70822126279992</v>
+        <v>46.66772653448652</v>
       </c>
       <c r="I16" t="n">
-        <v>48.70822126279992</v>
+        <v>46.66772653448652</v>
       </c>
       <c r="J16" t="n">
-        <v>70.90909996532656</v>
+        <v>66.24155552490322</v>
       </c>
       <c r="K16" t="n">
-        <v>237.2288002276212</v>
+        <v>228.2442061124177</v>
       </c>
       <c r="L16" t="n">
-        <v>505.5871892976857</v>
+        <v>491.0782579069459</v>
       </c>
       <c r="M16" t="n">
-        <v>798.9226070439695</v>
+        <v>778.5890365654179</v>
       </c>
       <c r="N16" t="n">
-        <v>1090.717780614996</v>
+        <v>1064.698067947432</v>
       </c>
       <c r="O16" t="n">
-        <v>1344.221556310764</v>
+        <v>1312.949771002865</v>
       </c>
       <c r="P16" t="n">
-        <v>1537.617148320144</v>
+        <v>1501.851307544853</v>
       </c>
       <c r="Q16" t="n">
-        <v>1588.079151591117</v>
+        <v>1549.201859755231</v>
       </c>
       <c r="R16" t="n">
-        <v>1588.079151591117</v>
+        <v>1549.201859755231</v>
       </c>
       <c r="S16" t="n">
-        <v>1390.62842464375</v>
+        <v>1351.090427317386</v>
       </c>
       <c r="T16" t="n">
-        <v>1390.62842464375</v>
+        <v>1351.090427317386</v>
       </c>
       <c r="U16" t="n">
-        <v>1101.507514443026</v>
+        <v>1061.967449180856</v>
       </c>
       <c r="V16" t="n">
-        <v>1101.507514443026</v>
+        <v>1061.967449180856</v>
       </c>
       <c r="W16" t="n">
-        <v>812.0903444060657</v>
+        <v>772.5502791438951</v>
       </c>
       <c r="X16" t="n">
-        <v>812.0903444060657</v>
+        <v>730.3348898567956</v>
       </c>
       <c r="Y16" t="n">
-        <v>591.2977652625356</v>
+        <v>509.5423107132655</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1268.087013451976</v>
+        <v>1211.005488048709</v>
       </c>
       <c r="C17" t="n">
-        <v>1203.748077257402</v>
+        <v>1211.005488048709</v>
       </c>
       <c r="D17" t="n">
-        <v>845.4823786506518</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E17" t="n">
-        <v>459.6941260524075</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F17" t="n">
-        <v>48.70822126279992</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G17" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H17" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I17" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J17" t="n">
-        <v>176.2428170171997</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K17" t="n">
-        <v>418.1226343655926</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L17" t="n">
-        <v>755.0976981207359</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M17" t="n">
-        <v>1161.716822136105</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N17" t="n">
-        <v>1579.529277064082</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O17" t="n">
-        <v>1960.722469238773</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P17" t="n">
-        <v>2251.561038684725</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q17" t="n">
-        <v>2421.795945472545</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R17" t="n">
-        <v>2435.411063139996</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S17" t="n">
-        <v>2435.411063139996</v>
+        <v>2532.5853830382</v>
       </c>
       <c r="T17" t="n">
-        <v>2226.205131717577</v>
+        <v>2323.839741644025</v>
       </c>
       <c r="U17" t="n">
-        <v>1972.615659056627</v>
+        <v>2323.839741644025</v>
       </c>
       <c r="V17" t="n">
-        <v>1641.552771713056</v>
+        <v>2323.839741644025</v>
       </c>
       <c r="W17" t="n">
-        <v>1641.552771713056</v>
+        <v>1971.07108637391</v>
       </c>
       <c r="X17" t="n">
-        <v>1268.087013451976</v>
+        <v>1597.605328112831</v>
       </c>
       <c r="Y17" t="n">
-        <v>1268.087013451976</v>
+        <v>1597.605328112831</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>836.9895869196308</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C18" t="n">
-        <v>662.5365576385038</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D18" t="n">
-        <v>513.6021479772526</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E18" t="n">
-        <v>354.364692971797</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>207.830134998682</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G18" t="n">
-        <v>71.07246473207134</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.07246473207134</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I18" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J18" t="n">
-        <v>230.6792308246846</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K18" t="n">
-        <v>492.1751681709957</v>
+        <v>614.5430248380237</v>
       </c>
       <c r="L18" t="n">
-        <v>774.9063011751063</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M18" t="n">
-        <v>1377.670539302255</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N18" t="n">
-        <v>1750.614636237783</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O18" t="n">
-        <v>2069.565829191699</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P18" t="n">
-        <v>2306.219214527819</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q18" t="n">
-        <v>2414.49653901033</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R18" t="n">
-        <v>2435.411063139996</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S18" t="n">
-        <v>2332.533388008208</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T18" t="n">
-        <v>2138.299993294874</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U18" t="n">
-        <v>1910.20618787013</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V18" t="n">
-        <v>1675.054079638387</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1420.816722910185</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1212.965222704653</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y18" t="n">
-        <v>1005.204923939699</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>196.621314845193</v>
+        <v>427.4800176695874</v>
       </c>
       <c r="C19" t="n">
-        <v>196.621314845193</v>
+        <v>427.4800176695874</v>
       </c>
       <c r="D19" t="n">
-        <v>196.621314845193</v>
+        <v>277.3633782572516</v>
       </c>
       <c r="E19" t="n">
-        <v>48.70822126279992</v>
+        <v>277.3633782572516</v>
       </c>
       <c r="F19" t="n">
-        <v>48.70822126279992</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G19" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H19" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I19" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J19" t="n">
-        <v>70.90909996532656</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K19" t="n">
-        <v>237.2288002276212</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L19" t="n">
-        <v>505.5871892976856</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M19" t="n">
-        <v>798.9226070439694</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N19" t="n">
-        <v>1090.717780614996</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1344.221556310763</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P19" t="n">
-        <v>1537.617148320144</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
-        <v>1588.079151591117</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1588.079151591117</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S19" t="n">
-        <v>1390.628424643749</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T19" t="n">
-        <v>1167.448415314542</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U19" t="n">
-        <v>878.3275051138189</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V19" t="n">
-        <v>623.6430169079321</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W19" t="n">
-        <v>334.2258468709715</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="X19" t="n">
-        <v>334.2258468709715</v>
+        <v>829.9210616433572</v>
       </c>
       <c r="Y19" t="n">
-        <v>196.621314845193</v>
+        <v>609.1284824998271</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1630.254794930908</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C20" t="n">
-        <v>1261.292277990496</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D20" t="n">
-        <v>1261.292277990496</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E20" t="n">
-        <v>875.5040253922518</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F20" t="n">
-        <v>464.5181206026443</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G20" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H20" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I20" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J20" t="n">
-        <v>176.2428170171997</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K20" t="n">
-        <v>418.1226343655926</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L20" t="n">
-        <v>755.0976981207361</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M20" t="n">
-        <v>1161.716822136105</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
-        <v>1579.529277064082</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O20" t="n">
-        <v>1960.722469238773</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P20" t="n">
-        <v>2251.561038684725</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q20" t="n">
-        <v>2421.795945472545</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R20" t="n">
-        <v>2435.411063139996</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S20" t="n">
-        <v>2435.411063139996</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T20" t="n">
-        <v>2226.205131717577</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U20" t="n">
-        <v>2016.85463499503</v>
+        <v>1975.571635574308</v>
       </c>
       <c r="V20" t="n">
-        <v>2016.85463499503</v>
+        <v>1975.571635574308</v>
       </c>
       <c r="W20" t="n">
-        <v>2016.85463499503</v>
+        <v>1622.802980304194</v>
       </c>
       <c r="X20" t="n">
-        <v>2016.85463499503</v>
+        <v>1622.802980304194</v>
       </c>
       <c r="Y20" t="n">
-        <v>2016.85463499503</v>
+        <v>1622.802980304194</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>814.6253434503593</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C21" t="n">
-        <v>640.1723141692323</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D21" t="n">
-        <v>491.2379045079811</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E21" t="n">
-        <v>332.0004495025256</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F21" t="n">
-        <v>185.4658915294106</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G21" t="n">
-        <v>48.70822126279992</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H21" t="n">
-        <v>48.70822126279992</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I21" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J21" t="n">
-        <v>105.8491058376799</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K21" t="n">
-        <v>543.4873882097161</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L21" t="n">
-        <v>826.2185212138266</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M21" t="n">
-        <v>1175.509286035876</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N21" t="n">
-        <v>1548.453382971403</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O21" t="n">
-        <v>1867.404575925319</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P21" t="n">
-        <v>2104.057961261439</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2420.311800602442</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R21" t="n">
-        <v>2435.411063139996</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S21" t="n">
-        <v>2298.644210097363</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T21" t="n">
-        <v>2104.410815384028</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U21" t="n">
-        <v>1887.841944400858</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V21" t="n">
-        <v>1652.689836169116</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W21" t="n">
-        <v>1398.452479440914</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X21" t="n">
-        <v>1190.600979235381</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y21" t="n">
-        <v>982.8406804704273</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>832.8660171073726</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="C22" t="n">
-        <v>663.9298341794657</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D22" t="n">
-        <v>513.81319476713</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9001011847369</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F22" t="n">
-        <v>365.9001011847369</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G22" t="n">
-        <v>197.8664702427311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H22" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I22" t="n">
-        <v>48.70822126279992</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J22" t="n">
-        <v>70.90909996532656</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K22" t="n">
-        <v>237.2288002276212</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L22" t="n">
-        <v>505.5871892976856</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M22" t="n">
-        <v>798.9226070439694</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N22" t="n">
-        <v>1090.717780614996</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1344.221556310763</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P22" t="n">
-        <v>1537.617148320144</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
-        <v>1588.079151591117</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R22" t="n">
-        <v>1588.079151591117</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S22" t="n">
-        <v>1588.079151591117</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T22" t="n">
-        <v>1364.89914226191</v>
+        <v>1577.449384806998</v>
       </c>
       <c r="U22" t="n">
-        <v>1364.89914226191</v>
+        <v>1288.331047310836</v>
       </c>
       <c r="V22" t="n">
-        <v>1110.214654056023</v>
+        <v>1033.646559104949</v>
       </c>
       <c r="W22" t="n">
-        <v>1014.514481937612</v>
+        <v>744.229389067988</v>
       </c>
       <c r="X22" t="n">
-        <v>1014.514481937612</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="Y22" t="n">
-        <v>1014.514481937612</v>
+        <v>516.2398381699707</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>861.3216348137591</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C23" t="n">
-        <v>492.3591178733474</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D23" t="n">
-        <v>492.3591178733474</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E23" t="n">
-        <v>466.9515368437143</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F23" t="n">
         <v>466.9515368437143</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K23" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N23" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O23" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P23" t="n">
         <v>2360.886721764998</v>
@@ -6022,19 +6022,19 @@
         <v>2562.339328400156</v>
       </c>
       <c r="U23" t="n">
-        <v>2308.758267664336</v>
+        <v>2380.099439738572</v>
       </c>
       <c r="V23" t="n">
-        <v>1977.695380320765</v>
+        <v>2380.099439738572</v>
       </c>
       <c r="W23" t="n">
-        <v>1624.926725050651</v>
+        <v>2027.330784468458</v>
       </c>
       <c r="X23" t="n">
-        <v>1251.460966789571</v>
+        <v>1653.865026207378</v>
       </c>
       <c r="Y23" t="n">
-        <v>861.3216348137591</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E24" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F24" t="n">
-        <v>302.14468917569</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G24" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K24" t="n">
         <v>423.1489515180662</v>
@@ -6083,10 +6083,10 @@
         <v>1468.399656105704</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.578639884742</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P24" t="n">
-        <v>2349.761373717039</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400156</v>
@@ -6095,25 +6095,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S24" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T24" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V24" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y24" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>198.1367340659135</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C25" t="n">
-        <v>198.1367340659135</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D25" t="n">
-        <v>198.1367340659135</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E25" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F25" t="n">
-        <v>51.24678656800312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H25" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K25" t="n">
         <v>248.4064713020476</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R25" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S25" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T25" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U25" t="n">
-        <v>825.1371474485143</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V25" t="n">
-        <v>600.5777780396833</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W25" t="n">
-        <v>600.5777780396833</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X25" t="n">
-        <v>600.5777780396833</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y25" t="n">
-        <v>379.7851988961531</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1042.715325395395</v>
+        <v>1407.319888150873</v>
       </c>
       <c r="C26" t="n">
-        <v>820.4983899643612</v>
+        <v>1407.319888150873</v>
       </c>
       <c r="D26" t="n">
-        <v>462.2326913576107</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2326913576107</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F26" t="n">
-        <v>51.24678656800312</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362814</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P26" t="n">
         <v>2360.886721764998</v>
@@ -6253,25 +6253,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T26" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U26" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V26" t="n">
-        <v>1768.949738926589</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W26" t="n">
-        <v>1416.181083656475</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="X26" t="n">
-        <v>1042.715325395395</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="Y26" t="n">
-        <v>1042.715325395395</v>
+        <v>1793.919728214995</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F27" t="n">
-        <v>302.14468917569</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K27" t="n">
-        <v>298.3188265310615</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L27" t="n">
-        <v>593.0223835625333</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M27" t="n">
-        <v>970.4000522258382</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N27" t="n">
-        <v>1357.685180822783</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O27" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P27" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R27" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="S27" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T27" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>621.5776595052481</v>
+        <v>388.1694341876315</v>
       </c>
       <c r="C28" t="n">
-        <v>452.6414765773412</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D28" t="n">
-        <v>452.6414765773412</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E28" t="n">
-        <v>304.7283829949481</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F28" t="n">
-        <v>157.8384354970378</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G28" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K28" t="n">
         <v>248.4064713020476</v>
@@ -6411,25 +6411,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T28" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U28" t="n">
-        <v>1347.327782578335</v>
+        <v>1308.017199096379</v>
       </c>
       <c r="V28" t="n">
-        <v>1092.643294372449</v>
+        <v>1308.017199096379</v>
       </c>
       <c r="W28" t="n">
-        <v>803.2261243354878</v>
+        <v>1018.600029059419</v>
       </c>
       <c r="X28" t="n">
-        <v>803.2261243354878</v>
+        <v>790.6104781614013</v>
       </c>
       <c r="Y28" t="n">
-        <v>803.2261243354878</v>
+        <v>569.8178990178711</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1240.759433410665</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C29" t="n">
-        <v>871.7969164702531</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D29" t="n">
-        <v>513.5312178635027</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E29" t="n">
-        <v>127.7429652652584</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F29" t="n">
-        <v>127.7429652652584</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362814</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O29" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P29" t="n">
         <v>2360.886721764998</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T29" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U29" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V29" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W29" t="n">
-        <v>2000.825031735866</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X29" t="n">
-        <v>1627.359273474787</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y29" t="n">
-        <v>1627.359273474787</v>
+        <v>1291.481876182946</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F30" t="n">
-        <v>302.14468917569</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G30" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J30" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380228</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L30" t="n">
-        <v>909.2465818694947</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M30" t="n">
         <v>1272.508600828715</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O30" t="n">
         <v>1991.864164601822</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400156</v>
@@ -6569,25 +6569,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S30" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T30" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V30" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.1367340659135</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C31" t="n">
-        <v>198.1367340659135</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D31" t="n">
-        <v>198.1367340659135</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020476</v>
@@ -6651,22 +6651,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T31" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U31" t="n">
-        <v>927.720553932932</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="V31" t="n">
-        <v>673.0360657270452</v>
+        <v>896.0145465323097</v>
       </c>
       <c r="W31" t="n">
-        <v>383.6188956900846</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="X31" t="n">
-        <v>383.6188956900846</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="Y31" t="n">
-        <v>198.1367340659135</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>778.4750021151654</v>
+        <v>1441.151072944881</v>
       </c>
       <c r="C32" t="n">
-        <v>409.5124851747536</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D32" t="n">
-        <v>51.24678656800312</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E32" t="n">
-        <v>51.24678656800312</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F32" t="n">
-        <v>51.24678656800312</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362814</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6715,7 +6715,7 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P32" t="n">
         <v>2360.886721764998</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.313418796631</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.25053145306</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W32" t="n">
-        <v>1291.481876182946</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X32" t="n">
-        <v>918.016117921866</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y32" t="n">
-        <v>918.016117921866</v>
+        <v>1441.151072944881</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F33" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K33" t="n">
-        <v>483.044112948947</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L33" t="n">
-        <v>1117.223096727986</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M33" t="n">
-        <v>1480.485115687206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N33" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O33" t="n">
-        <v>2199.840679460313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P33" t="n">
-        <v>2447.02341329261</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400156</v>
@@ -6818,10 +6818,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>493.6198743604853</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="C34" t="n">
-        <v>324.6836914325784</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="D34" t="n">
-        <v>174.5670520202426</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E34" t="n">
-        <v>174.5670520202426</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F34" t="n">
-        <v>51.24678656800312</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020476</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S34" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T34" t="n">
-        <v>1413.467639269233</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U34" t="n">
-        <v>1413.467639269233</v>
+        <v>1422.023415401799</v>
       </c>
       <c r="V34" t="n">
-        <v>1413.467639269233</v>
+        <v>1167.338927195912</v>
       </c>
       <c r="W34" t="n">
-        <v>1124.050469232272</v>
+        <v>1167.338927195912</v>
       </c>
       <c r="X34" t="n">
-        <v>896.0609183342551</v>
+        <v>939.3493762978951</v>
       </c>
       <c r="Y34" t="n">
-        <v>675.268339190725</v>
+        <v>718.556797154365</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>778.4750021151654</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C35" t="n">
-        <v>409.5124851747536</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D35" t="n">
-        <v>51.24678656800311</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E35" t="n">
-        <v>51.24678656800311</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F35" t="n">
-        <v>51.24678656800311</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230819</v>
       </c>
       <c r="O35" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740842</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q35" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R35" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="T35" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="U35" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="V35" t="n">
-        <v>1644.250531453059</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="W35" t="n">
-        <v>1291.481876182945</v>
+        <v>2084.871465656513</v>
       </c>
       <c r="X35" t="n">
-        <v>918.0161179218655</v>
+        <v>1711.405707395434</v>
       </c>
       <c r="Y35" t="n">
-        <v>778.4750021151654</v>
+        <v>1321.266375419622</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966407</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155137</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542625</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148807</v>
       </c>
       <c r="F36" t="n">
-        <v>302.14468917569</v>
+        <v>302.144689175692</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182541</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057898</v>
+        <v>71.6740181205811</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J36" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K36" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143511</v>
       </c>
       <c r="L36" t="n">
-        <v>909.2465818694942</v>
+        <v>884.908532145823</v>
       </c>
       <c r="M36" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105043</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701988</v>
       </c>
       <c r="O36" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.52611487815</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676484</v>
       </c>
       <c r="R36" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780098</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175228</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52074204714</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815397</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881663</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116709</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.1026499885492</v>
+        <v>538.2860735999672</v>
       </c>
       <c r="C37" t="n">
-        <v>496.1664670606423</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D37" t="n">
-        <v>346.0498276483066</v>
+        <v>219.2332512597246</v>
       </c>
       <c r="E37" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597246</v>
       </c>
       <c r="F37" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597246</v>
       </c>
       <c r="G37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K37" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L37" t="n">
         <v>523.6376499693235</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.322645727559</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.204308231397</v>
+        <v>1423.401156677641</v>
       </c>
       <c r="V37" t="n">
-        <v>954.5198200255097</v>
+        <v>1168.716668471754</v>
       </c>
       <c r="W37" t="n">
-        <v>665.1026499885492</v>
+        <v>1168.716668471754</v>
       </c>
       <c r="X37" t="n">
-        <v>665.1026499885492</v>
+        <v>940.727117573737</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.1026499885492</v>
+        <v>719.9345384302069</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1909.224801182914</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C38" t="n">
-        <v>1540.262284242502</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.996585635751</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E38" t="n">
-        <v>1181.996585635751</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F38" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G38" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
         <v>51.24678656800315</v>
@@ -7207,19 +7207,19 @@
         <v>2437.640120926628</v>
       </c>
       <c r="U38" t="n">
-        <v>2184.059060190807</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="V38" t="n">
-        <v>2184.059060190807</v>
+        <v>2106.577233583057</v>
       </c>
       <c r="W38" t="n">
-        <v>1909.224801182914</v>
+        <v>2106.577233583057</v>
       </c>
       <c r="X38" t="n">
-        <v>1909.224801182914</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="Y38" t="n">
-        <v>1909.224801182914</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966407</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155137</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542625</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E39" t="n">
-        <v>448.679247148807</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F39" t="n">
-        <v>302.144689175692</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182541</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.6740181205811</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I39" t="n">
         <v>51.24678656800315</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370162</v>
+        <v>168.000818914519</v>
       </c>
       <c r="K39" t="n">
-        <v>423.1489515180663</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L39" t="n">
-        <v>717.852508549538</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M39" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.399656105704</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O39" t="n">
-        <v>1800.470091281866</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P39" t="n">
-        <v>2362.9309660677</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R39" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S39" t="n">
-        <v>2426.617474780098</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T39" t="n">
-        <v>2232.610846175228</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.52074204714</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.368633815397</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.279776881663</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.519478116709</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.8065995564537</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="C40" t="n">
-        <v>177.8065995564537</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D40" t="n">
-        <v>51.24678656800315</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E40" t="n">
-        <v>51.24678656800315</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F40" t="n">
         <v>51.24678656800315</v>
@@ -7356,28 +7356,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R40" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S40" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T40" t="n">
-        <v>1413.467639269233</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U40" t="n">
-        <v>1124.349301773071</v>
+        <v>1199.633085308077</v>
       </c>
       <c r="V40" t="n">
-        <v>869.6648135671841</v>
+        <v>944.9485971021899</v>
       </c>
       <c r="W40" t="n">
-        <v>580.2476435302235</v>
+        <v>944.9485971021899</v>
       </c>
       <c r="X40" t="n">
-        <v>580.2476435302235</v>
+        <v>716.9590462041725</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.4550643866934</v>
+        <v>496.1664670606424</v>
       </c>
     </row>
     <row r="41">
@@ -7390,10 +7390,10 @@
         <v>1126.761759316042</v>
       </c>
       <c r="C41" t="n">
-        <v>1126.761759316042</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="D41" t="n">
-        <v>768.4960607092914</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E41" t="n">
         <v>466.9515368437143</v>
@@ -7472,43 +7472,43 @@
         <v>756.8511118155128</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756909</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I42" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L42" t="n">
-        <v>932.4978103101002</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M42" t="n">
-        <v>1480.485115687206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N42" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O42" t="n">
-        <v>2199.840679460313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q42" t="n">
         <v>2562.339328400156</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>366.1231987576349</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C43" t="n">
-        <v>366.1231987576349</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D43" t="n">
-        <v>366.1231987576349</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E43" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F43" t="n">
         <v>219.2332512597245</v>
@@ -7599,22 +7599,22 @@
         <v>1636.446120074498</v>
       </c>
       <c r="T43" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U43" t="n">
-        <v>1124.349301773071</v>
+        <v>1571.314250260034</v>
       </c>
       <c r="V43" t="n">
-        <v>869.6648135671841</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="W43" t="n">
-        <v>580.2476435302235</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="X43" t="n">
-        <v>580.2476435302235</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y43" t="n">
-        <v>366.1231987576349</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1263.725694231566</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.725694231566</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D44" t="n">
-        <v>1263.725694231566</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F44" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G44" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I44" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K44" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O44" t="n">
         <v>2055.228484740841</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T44" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U44" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V44" t="n">
-        <v>2353.593687005981</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="W44" t="n">
-        <v>2353.593687005981</v>
+        <v>1545.062936918767</v>
       </c>
       <c r="X44" t="n">
-        <v>2040.4648662715</v>
+        <v>1171.597178657687</v>
       </c>
       <c r="Y44" t="n">
-        <v>1650.325534295688</v>
+        <v>944.3110907974333</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I45" t="n">
         <v>51.24678656800313</v>
@@ -7730,49 +7730,49 @@
         <v>238.4273302370162</v>
       </c>
       <c r="K45" t="n">
-        <v>614.5430248380233</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694951</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M45" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.793729425661</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.04689843412</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.24678656800313</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="C46" t="n">
-        <v>51.24678656800313</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="D46" t="n">
-        <v>51.24678656800313</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E46" t="n">
-        <v>51.24678656800313</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F46" t="n">
-        <v>51.24678656800313</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H46" t="n">
         <v>51.24678656800313</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.817372234359</v>
+        <v>1598.117878961152</v>
       </c>
       <c r="T46" t="n">
-        <v>1216.838891429094</v>
+        <v>1598.117878961152</v>
       </c>
       <c r="U46" t="n">
-        <v>927.720553932932</v>
+        <v>1308.99954146499</v>
       </c>
       <c r="V46" t="n">
-        <v>673.0360657270452</v>
+        <v>1054.315053259103</v>
       </c>
       <c r="W46" t="n">
-        <v>383.6188956900846</v>
+        <v>764.8978832221426</v>
       </c>
       <c r="X46" t="n">
-        <v>155.6293447920672</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.24678656800313</v>
+        <v>536.9083323241252</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8063,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8142,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8379,16 +8379,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8458,16 +8458,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8549,10 +8549,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>196.2184492047237</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>127.9776909938876</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.66886087721419</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>171.3315364494547</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>307.4802001278852</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>132.0560501623584</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>24.39588786216316</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.54367638053304</v>
+        <v>193.3273467878359</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>256.0338114192929</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="R21" t="n">
-        <v>39.64766820312757</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="Q24" t="n">
-        <v>98.24448441976838</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>20.93778120154985</v>
@@ -9953,22 +9953,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>14.25823202432798</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>60.50016306149581</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L33" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-8.633094239485217e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3273467878345</v>
+        <v>168.7434581780655</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566424</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.94186588374822</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>20.93778120154985</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L42" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>20.93778120154985</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3273467878354</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>329.0627504260521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>200.5294970799005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>150.1421465040849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22682,13 +22682,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22761,16 +22761,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7526768722601</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>357.1135504688497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22834,7 +22834,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22843,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>305.1859059859041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,16 +22868,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0787279711701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22925,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22995,19 +22995,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>202.3252982336507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>203.1433029048063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23026,13 +23026,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>329.0627504260521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.2496818266379</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,16 +23153,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>178.3449675368486</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.2116889873065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>141.626529903997</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>123.8676101623384</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>118.4194697987034</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
         <v>208.0722578696038</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>178.8890945642147</v>
       </c>
     </row>
     <row r="12">
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>18.77588248904618</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>82.6593421029186</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I12" t="n">
-        <v>26.17372043046386</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
         <v>109.1541654470835</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S13" t="n">
-        <v>197.1876907596158</v>
+        <v>40.60454402509123</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>100.0295158923592</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>223.2596697148084</v>
       </c>
       <c r="E14" t="n">
-        <v>313.2395752554915</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>302.9415626890816</v>
       </c>
       <c r="I14" t="n">
-        <v>69.7231343745182</v>
+        <v>72.94895555382635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>127.7310478910814</v>
       </c>
       <c r="T14" t="n">
-        <v>207.1138721081947</v>
+        <v>207.4801526921366</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0535779343414</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7791698354799</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22.14060103457869</v>
+        <v>23.6819984414645</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.2556810670999</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>70.55365622660234</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3532946325857</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.6666664901319</v>
+        <v>148.0003692913787</v>
       </c>
       <c r="I16" t="n">
-        <v>106.2008288073668</v>
+        <v>107.3295495297844</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>103.657130884732</v>
+        <v>105.3447526178268</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.9482092359148</v>
+        <v>221.1085776577819</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>183.9164199948087</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>301.5773449383796</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6518003464459</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>302.0846418369296</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>69.7231343745182</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>125.8243388547418</v>
+        <v>93.99580949045783</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>93.36948473832146</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>33.5502861317371</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>87.87222229537946</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3532946325857</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.6666664901319</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
-        <v>106.2008288073668</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>103.657130884732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.35616664657417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>302.0846418369296</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>69.7231343745182</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>125.8243388547418</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>43.79658617901902</v>
+        <v>0.2556346099001985</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>93.36948473832146</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22.14060103457869</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>11.4096850971583</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
-        <v>106.2008288073668</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>103.657130884732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>195.4762196778937</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>162.3419280823871</v>
       </c>
       <c r="U22" t="n">
-        <v>286.229701098716</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>191.7798279393647</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>356.776864852925</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.62776035349361</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>29.82386760908531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>84.27865689207582</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>145.2781256942837</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>212.5247896405691</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>60.78086760505991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551288</v>
@@ -24651,25 +24651,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>155.7449827146009</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>338.59774323036</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>335.8164858626712</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551288</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>224.2268208030723</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.95731334416541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>244.588137014847</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>228.0843510657175</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>23.33398522521412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>104.7965952039006</v>
@@ -25125,19 +25125,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>268.6111368569668</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>364.231151508197</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.0922340074204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551288</v>
@@ -25362,25 +25362,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>84.00645639374255</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>269.9751007200504</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>77.15505229959803</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>352.5288198200248</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>23.32125815964633</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3066000448042</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>194.6624603617375</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>176.0885181192293</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>66.74381314408629</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>83.40129144534041</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>221.746603004882</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.601453027232083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>59.73356815133263</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>161.2247116744027</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>104.7965952039006</v>
@@ -26073,10 +26073,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>156.7175016595257</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.2459207102713</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>350101.3755278486</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350101.3755278485</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350101.3755278486</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736587.1076605838</v>
+        <v>736587.1076605839</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783877.9314820404</v>
+        <v>765804.0918426145</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783877.9314820403</v>
+        <v>806363.4697212775</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783877.9314820401</v>
+        <v>806363.4697212775</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806363.4697212772</v>
+        <v>806363.4697212775</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806363.4697212772</v>
+        <v>806363.4697212776</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806363.4697212774</v>
+        <v>806363.4697212775</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103289.0337309774</v>
+        <v>96756.66497830176</v>
       </c>
       <c r="C2" t="n">
-        <v>103289.0337309775</v>
+        <v>96756.66497830176</v>
       </c>
       <c r="D2" t="n">
-        <v>103289.0337309774</v>
+        <v>96756.66497830175</v>
       </c>
       <c r="E2" t="n">
         <v>251592.5181061709</v>
       </c>
       <c r="F2" t="n">
-        <v>267710.698290591</v>
+        <v>261550.5729133627</v>
       </c>
       <c r="G2" t="n">
-        <v>267710.698290591</v>
+        <v>275374.4674448775</v>
       </c>
       <c r="H2" t="n">
-        <v>267710.698290591</v>
+        <v>275374.4674448776</v>
       </c>
       <c r="I2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448776</v>
       </c>
       <c r="J2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448776</v>
       </c>
       <c r="K2" t="n">
         <v>275374.4674448775</v>
@@ -26346,16 +26346,16 @@
         <v>275374.4674448775</v>
       </c>
       <c r="M2" t="n">
+        <v>275374.4674448777</v>
+      </c>
+      <c r="N2" t="n">
+        <v>275374.4674448775</v>
+      </c>
+      <c r="O2" t="n">
+        <v>275374.4674448775</v>
+      </c>
+      <c r="P2" t="n">
         <v>275374.4674448776</v>
-      </c>
-      <c r="N2" t="n">
-        <v>275374.4674448776</v>
-      </c>
-      <c r="O2" t="n">
-        <v>275374.4674448776</v>
-      </c>
-      <c r="P2" t="n">
-        <v>275374.4674448775</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8585.948846018267</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>840087.6532666441</v>
+        <v>847737.3085709546</v>
       </c>
       <c r="F3" t="n">
-        <v>62169.71753614045</v>
+        <v>38409.38911769596</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>52003.0438884732</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27930.10971324593</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6703.39546932798</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128712.5366291203</v>
+        <v>135097.2156759872</v>
       </c>
       <c r="N3" t="n">
-        <v>16345.89135935336</v>
+        <v>10098.73820533299</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>13774.44220157248</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51733.050312686</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>51733.050312686</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
-        <v>51733.050312686</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
         <v>10209.56958408458</v>
       </c>
       <c r="F4" t="n">
-        <v>10988.62528250989</v>
+        <v>10690.88194404152</v>
       </c>
       <c r="G4" t="n">
-        <v>10988.62528250989</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="H4" t="n">
-        <v>10988.62528250989</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="I4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="J4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="K4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="L4" t="n">
         <v>11359.04569987402</v>
       </c>
       <c r="M4" t="n">
-        <v>11359.04569987399</v>
+        <v>11359.04569987403</v>
       </c>
       <c r="N4" t="n">
-        <v>11359.04569987403</v>
+        <v>11359.045699874</v>
       </c>
       <c r="O4" t="n">
         <v>11359.04569987402</v>
       </c>
       <c r="P4" t="n">
-        <v>11359.04569987402</v>
+        <v>11359.045699874</v>
       </c>
     </row>
     <row r="5">
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
         <v>51571.48185587232</v>
       </c>
       <c r="F5" t="n">
-        <v>56816.36769123693</v>
+        <v>54811.85142665736</v>
       </c>
       <c r="G5" t="n">
-        <v>56816.36769123692</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="H5" t="n">
-        <v>56816.36769123692</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="M5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984475</v>
       </c>
       <c r="N5" t="n">
         <v>59310.17243984475</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7003.043727246481</v>
+        <v>13235.66509214741</v>
       </c>
       <c r="C6" t="n">
-        <v>1582.905118771796</v>
+        <v>13235.66509214741</v>
       </c>
       <c r="D6" t="n">
-        <v>1582.905118771781</v>
+        <v>13235.6650921474</v>
       </c>
       <c r="E6" t="n">
-        <v>-656824.8687300277</v>
+        <v>-658580.7101177003</v>
       </c>
       <c r="F6" t="n">
-        <v>132082.7601057961</v>
+        <v>157038.9047387148</v>
       </c>
       <c r="G6" t="n">
-        <v>194252.4776419365</v>
+        <v>152179.4591444964</v>
       </c>
       <c r="H6" t="n">
-        <v>194252.4776419365</v>
+        <v>204182.5030329697</v>
       </c>
       <c r="I6" t="n">
-        <v>171547.6768700212</v>
+        <v>204182.5030329697</v>
       </c>
       <c r="J6" t="n">
-        <v>192774.3911139392</v>
+        <v>204182.5030329697</v>
       </c>
       <c r="K6" t="n">
-        <v>199477.7865832672</v>
+        <v>204182.5030329696</v>
       </c>
       <c r="L6" t="n">
-        <v>199477.7865832672</v>
+        <v>204182.5030329696</v>
       </c>
       <c r="M6" t="n">
-        <v>70765.24995414696</v>
+        <v>69085.28735698256</v>
       </c>
       <c r="N6" t="n">
-        <v>183131.8952239138</v>
+        <v>194083.7648276366</v>
       </c>
       <c r="O6" t="n">
-        <v>199477.7865832672</v>
+        <v>190408.0608313971</v>
       </c>
       <c r="P6" t="n">
-        <v>199477.7865832671</v>
+        <v>204182.5030329697</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>853.7106645376851</v>
       </c>
       <c r="F3" t="n">
-        <v>908.1706207114212</v>
+        <v>887.3568468095236</v>
       </c>
       <c r="G3" t="n">
-        <v>908.1706207114211</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="H3" t="n">
-        <v>908.1706207114211</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175394</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>542.1149567261643</v>
       </c>
       <c r="F4" t="n">
-        <v>608.8527657849991</v>
+        <v>583.3465816810815</v>
       </c>
       <c r="G4" t="n">
-        <v>608.8527657849991</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="H4" t="n">
-        <v>608.8527657849991</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="I4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="L4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="N4" t="n">
         <v>640.5848321000393</v>
@@ -26971,16 +26971,16 @@
         <v>853.7106645376851</v>
       </c>
       <c r="F3" t="n">
-        <v>54.45995617373603</v>
+        <v>33.64618227183848</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>46.7080453080157</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25.89427140611838</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>516.4946655315335</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="F4" t="n">
-        <v>66.73780905883474</v>
+        <v>41.23162495491714</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>57.23825041895759</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>31.7320663150399</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463079</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.4946655315334</v>
+        <v>542.1149567261647</v>
       </c>
       <c r="N4" t="n">
-        <v>66.73780905883531</v>
+        <v>41.23162495491714</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>57.23825041895725</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.4946655315335</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="N4" t="n">
-        <v>66.73780905883474</v>
+        <v>41.23162495491714</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>57.23825041895759</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.650937168689127</v>
+        <v>3.567263705766926</v>
       </c>
       <c r="H14" t="n">
-        <v>37.39016027883753</v>
+        <v>36.53323942668555</v>
       </c>
       <c r="I14" t="n">
-        <v>140.7527551958877</v>
+        <v>137.5269340165796</v>
       </c>
       <c r="J14" t="n">
-        <v>309.8687285210291</v>
+        <v>302.7670479473359</v>
       </c>
       <c r="K14" t="n">
-        <v>464.41289887164</v>
+        <v>453.76932061245</v>
       </c>
       <c r="L14" t="n">
-        <v>576.1452672479099</v>
+        <v>562.9409672478147</v>
       </c>
       <c r="M14" t="n">
-        <v>641.0726211215853</v>
+        <v>626.3802931752473</v>
       </c>
       <c r="N14" t="n">
-        <v>651.4458463521233</v>
+        <v>636.5157811792576</v>
       </c>
       <c r="O14" t="n">
-        <v>615.1418398809707</v>
+        <v>601.0438027050377</v>
       </c>
       <c r="P14" t="n">
-        <v>525.0093285289578</v>
+        <v>512.9769799689167</v>
       </c>
       <c r="Q14" t="n">
-        <v>394.2601411752783</v>
+        <v>385.2243485061384</v>
       </c>
       <c r="R14" t="n">
-        <v>229.3381819226686</v>
+        <v>224.0821287573819</v>
       </c>
       <c r="S14" t="n">
-        <v>83.19573073150357</v>
+        <v>81.28902169516392</v>
       </c>
       <c r="T14" t="n">
-        <v>15.98197745593666</v>
+        <v>15.61569687199473</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2920749734951302</v>
+        <v>0.2853810964613541</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.953423599266076</v>
+        <v>1.90865434974124</v>
       </c>
       <c r="H15" t="n">
-        <v>18.865959498175</v>
+        <v>18.43358279881671</v>
       </c>
       <c r="I15" t="n">
-        <v>67.25603181683638</v>
+        <v>65.71463440995058</v>
       </c>
       <c r="J15" t="n">
-        <v>184.5556918938182</v>
+        <v>180.325979595509</v>
       </c>
       <c r="K15" t="n">
-        <v>315.4350730446453</v>
+        <v>308.205821028172</v>
       </c>
       <c r="L15" t="n">
-        <v>424.1413828143293</v>
+        <v>414.4207613330705</v>
       </c>
       <c r="M15" t="n">
-        <v>494.9529882877245</v>
+        <v>483.6094815111903</v>
       </c>
       <c r="N15" t="n">
-        <v>508.0529211091186</v>
+        <v>496.4091854618674</v>
       </c>
       <c r="O15" t="n">
-        <v>464.7691666201176</v>
+        <v>454.1174232912851</v>
       </c>
       <c r="P15" t="n">
-        <v>373.0182309861685</v>
+        <v>364.4692678905004</v>
       </c>
       <c r="Q15" t="n">
-        <v>249.3528089168416</v>
+        <v>243.6380534862677</v>
       </c>
       <c r="R15" t="n">
-        <v>121.2836161018008</v>
+        <v>118.5039955041096</v>
       </c>
       <c r="S15" t="n">
-        <v>36.28398659163081</v>
+        <v>35.45241741734274</v>
       </c>
       <c r="T15" t="n">
-        <v>7.873667928620715</v>
+        <v>7.693216436018415</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1285147104780313</v>
+        <v>0.1255693651145553</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.637684725873054</v>
+        <v>1.600151690967993</v>
       </c>
       <c r="H16" t="n">
-        <v>14.56050601730771</v>
+        <v>14.2268032160609</v>
       </c>
       <c r="I16" t="n">
-        <v>49.24964611989151</v>
+        <v>48.12092539747385</v>
       </c>
       <c r="J16" t="n">
-        <v>115.7843101192249</v>
+        <v>113.1307245514371</v>
       </c>
       <c r="K16" t="n">
-        <v>190.2691890605239</v>
+        <v>185.9085328233723</v>
       </c>
       <c r="L16" t="n">
-        <v>243.4790546084358</v>
+        <v>237.8989159462779</v>
       </c>
       <c r="M16" t="n">
-        <v>256.7145248020825</v>
+        <v>250.83105097601</v>
       </c>
       <c r="N16" t="n">
-        <v>250.6104271874649</v>
+        <v>244.8668492187659</v>
       </c>
       <c r="O16" t="n">
-        <v>231.4792919806751</v>
+        <v>226.1741681015488</v>
       </c>
       <c r="P16" t="n">
-        <v>198.0705235728646</v>
+        <v>193.5310736058016</v>
       </c>
       <c r="Q16" t="n">
-        <v>137.1337637274246</v>
+        <v>133.9908838682381</v>
       </c>
       <c r="R16" t="n">
-        <v>73.6362604924375</v>
+        <v>71.94863875934266</v>
       </c>
       <c r="S16" t="n">
-        <v>28.54037835907858</v>
+        <v>27.88627992350584</v>
       </c>
       <c r="T16" t="n">
-        <v>6.997380192366685</v>
+        <v>6.837011770499606</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08932825777489398</v>
+        <v>0.08728100132552701</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.650937168689127</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H17" t="n">
-        <v>37.39016027883753</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I17" t="n">
-        <v>140.7527551958877</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>309.8687285210291</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K17" t="n">
-        <v>464.4128988716399</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L17" t="n">
-        <v>576.1452672479099</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M17" t="n">
-        <v>641.0726211215851</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N17" t="n">
-        <v>651.4458463521232</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O17" t="n">
-        <v>615.1418398809707</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P17" t="n">
-        <v>525.0093285289578</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q17" t="n">
-        <v>394.2601411752782</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R17" t="n">
-        <v>229.3381819226686</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S17" t="n">
-        <v>83.19573073150357</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T17" t="n">
-        <v>15.98197745593666</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2920749734951301</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.953423599266076</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>18.86595949817499</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I18" t="n">
-        <v>67.25603181683638</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J18" t="n">
-        <v>184.5556918938182</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K18" t="n">
-        <v>315.4350730446452</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>424.1413828143293</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M18" t="n">
-        <v>494.9529882877244</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N18" t="n">
-        <v>508.0529211091185</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O18" t="n">
-        <v>464.7691666201175</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P18" t="n">
-        <v>373.0182309861684</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q18" t="n">
-        <v>249.3528089168415</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R18" t="n">
-        <v>121.2836161018008</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>36.28398659163081</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T18" t="n">
-        <v>7.873667928620714</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1285147104780313</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.637684725873054</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H19" t="n">
-        <v>14.56050601730771</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>49.2496461198915</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J19" t="n">
-        <v>115.7843101192249</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K19" t="n">
-        <v>190.2691890605239</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L19" t="n">
-        <v>243.4790546084357</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M19" t="n">
-        <v>256.7145248020825</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>250.6104271874649</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O19" t="n">
-        <v>231.479291980675</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P19" t="n">
-        <v>198.0705235728646</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q19" t="n">
-        <v>137.1337637274246</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>73.63626049243749</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S19" t="n">
-        <v>28.54037835907858</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T19" t="n">
-        <v>6.997380192366684</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08932825777489396</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.650937168689127</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H20" t="n">
-        <v>37.39016027883753</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I20" t="n">
-        <v>140.7527551958877</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J20" t="n">
-        <v>309.8687285210291</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K20" t="n">
-        <v>464.4128988716399</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L20" t="n">
-        <v>576.1452672479099</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M20" t="n">
-        <v>641.0726211215851</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N20" t="n">
-        <v>651.4458463521232</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O20" t="n">
-        <v>615.1418398809707</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P20" t="n">
-        <v>525.0093285289578</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q20" t="n">
-        <v>394.2601411752782</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R20" t="n">
-        <v>229.3381819226686</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S20" t="n">
-        <v>83.19573073150357</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T20" t="n">
-        <v>15.98197745593666</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2920749734951301</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.953423599266076</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H21" t="n">
-        <v>18.86595949817499</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I21" t="n">
-        <v>67.25603181683638</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J21" t="n">
-        <v>184.5556918938182</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K21" t="n">
-        <v>315.4350730446452</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L21" t="n">
-        <v>424.1413828143293</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M21" t="n">
-        <v>494.9529882877244</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N21" t="n">
-        <v>508.0529211091185</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O21" t="n">
-        <v>464.7691666201175</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P21" t="n">
-        <v>373.0182309861684</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.3528089168415</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R21" t="n">
-        <v>121.2836161018008</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>36.28398659163081</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T21" t="n">
-        <v>7.873667928620714</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1285147104780313</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.637684725873054</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H22" t="n">
-        <v>14.56050601730771</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>49.2496461198915</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J22" t="n">
-        <v>115.7843101192249</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K22" t="n">
-        <v>190.2691890605239</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L22" t="n">
-        <v>243.4790546084357</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M22" t="n">
-        <v>256.7145248020825</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N22" t="n">
-        <v>250.6104271874649</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O22" t="n">
-        <v>231.479291980675</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P22" t="n">
-        <v>198.0705235728646</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q22" t="n">
-        <v>137.1337637274246</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>73.63626049243749</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S22" t="n">
-        <v>28.54037835907858</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T22" t="n">
-        <v>6.997380192366684</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08932825777489396</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34383,7 +34383,7 @@
         <v>670.0202366342226</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P44" t="n">
         <v>539.9786897190646</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>46.6508773409397</v>
       </c>
       <c r="K12" t="n">
-        <v>354.8964964217228</v>
+        <v>423.1432842295777</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1526621818061</v>
+        <v>388.1303531756936</v>
       </c>
       <c r="M12" t="n">
         <v>323.13827825102</v>
@@ -35509,10 +35509,10 @@
         <v>216.6751672332334</v>
       </c>
       <c r="Q12" t="n">
-        <v>304.4954681847785</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>13.85280893410663</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8228239943429</v>
+        <v>121.7211434206496</v>
       </c>
       <c r="K14" t="n">
-        <v>244.3230478266594</v>
+        <v>233.6794695674695</v>
       </c>
       <c r="L14" t="n">
-        <v>340.3788522779227</v>
+        <v>327.1745522778274</v>
       </c>
       <c r="M14" t="n">
-        <v>410.7263878943126</v>
+        <v>396.0340599479746</v>
       </c>
       <c r="N14" t="n">
-        <v>422.0327827555324</v>
+        <v>407.1027175826667</v>
       </c>
       <c r="O14" t="n">
-        <v>385.0436284592839</v>
+        <v>370.945591283351</v>
       </c>
       <c r="P14" t="n">
-        <v>293.7763327736882</v>
+        <v>281.7439842136471</v>
       </c>
       <c r="Q14" t="n">
-        <v>171.9544513008288</v>
+        <v>162.9186586316889</v>
       </c>
       <c r="R14" t="n">
-        <v>13.75264410853649</v>
+        <v>8.496590943249771</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>57.7180652271515</v>
+        <v>53.48835292884229</v>
       </c>
       <c r="K15" t="n">
-        <v>348.925170519741</v>
+        <v>170.364382053813</v>
       </c>
       <c r="L15" t="n">
-        <v>285.5870030344552</v>
+        <v>583.3465816810815</v>
       </c>
       <c r="M15" t="n">
-        <v>352.8189543657061</v>
+        <v>341.475447589172</v>
       </c>
       <c r="N15" t="n">
-        <v>376.7112090257853</v>
+        <v>497.1235235408925</v>
       </c>
       <c r="O15" t="n">
-        <v>322.1729221756731</v>
+        <v>311.5211788468407</v>
       </c>
       <c r="P15" t="n">
-        <v>557.5065922117753</v>
+        <v>230.4948604761702</v>
       </c>
       <c r="Q15" t="n">
-        <v>109.37103483082</v>
+        <v>103.6562794002462</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>18.34616135146651</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.42513000255217</v>
+        <v>19.77154443476434</v>
       </c>
       <c r="K16" t="n">
-        <v>167.9996972346411</v>
+        <v>163.6390409974894</v>
       </c>
       <c r="L16" t="n">
-        <v>271.0690798687519</v>
+        <v>265.488941206594</v>
       </c>
       <c r="M16" t="n">
-        <v>296.2984017639231</v>
+        <v>290.4149279378506</v>
       </c>
       <c r="N16" t="n">
-        <v>294.7425995666936</v>
+        <v>288.9990215979945</v>
       </c>
       <c r="O16" t="n">
-        <v>256.0644198947148</v>
+        <v>250.7592960155885</v>
       </c>
       <c r="P16" t="n">
-        <v>195.3490828377581</v>
+        <v>190.8096328706951</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.97172047573021</v>
+        <v>47.82884061654367</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8228239943428</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
-        <v>244.3230478266594</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L17" t="n">
-        <v>340.3788522779227</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M17" t="n">
-        <v>410.7263878943124</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N17" t="n">
-        <v>422.0327827555323</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O17" t="n">
-        <v>385.0436284592839</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P17" t="n">
-        <v>293.7763327736882</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q17" t="n">
-        <v>171.9544513008288</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>13.75264410853646</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>183.8091005675603</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>264.1373104508193</v>
+        <v>379.9148430313208</v>
       </c>
       <c r="L18" t="n">
-        <v>285.5870030344551</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M18" t="n">
-        <v>608.8527657849991</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N18" t="n">
-        <v>376.7112090257851</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O18" t="n">
-        <v>322.1729221756731</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P18" t="n">
-        <v>239.0438235718382</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>109.37103483082</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
-        <v>21.12578194915764</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>22.42513000255215</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K19" t="n">
-        <v>167.999697234641</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L19" t="n">
-        <v>271.0690798687519</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M19" t="n">
-        <v>296.298401763923</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>294.7425995666935</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O19" t="n">
-        <v>256.0644198947147</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P19" t="n">
-        <v>195.3490828377581</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.97172047573018</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8228239943428</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
-        <v>244.3230478266594</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L20" t="n">
-        <v>340.3788522779227</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M20" t="n">
-        <v>410.7263878943124</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N20" t="n">
-        <v>422.0327827555323</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O20" t="n">
-        <v>385.0436284592839</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P20" t="n">
-        <v>293.7763327736882</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.9544513008288</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>13.75264410853646</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>57.71806522715147</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>442.0588710828648</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L21" t="n">
-        <v>285.5870030344551</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M21" t="n">
-        <v>352.8189543657061</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N21" t="n">
-        <v>376.7112090257851</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O21" t="n">
-        <v>322.1729221756731</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P21" t="n">
-        <v>239.0438235718382</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>319.4483225666691</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R21" t="n">
-        <v>15.25178034096439</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>22.42513000255215</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K22" t="n">
-        <v>167.999697234641</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L22" t="n">
-        <v>271.0690798687519</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M22" t="n">
-        <v>296.298401763923</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N22" t="n">
-        <v>294.7425995666935</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O22" t="n">
-        <v>256.0644198947147</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P22" t="n">
-        <v>195.3490828377581</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.97172047573018</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O24" t="n">
-        <v>640.584832100039</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.725206750623</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.6579754225033</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K26" t="n">
         <v>257.5646495407339</v>
@@ -36618,7 +36618,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434849</v>
+        <v>355.3309544215496</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378503</v>
       </c>
       <c r="M27" t="n">
-        <v>381.1895643063686</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N27" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O27" t="n">
-        <v>640.584832100039</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P27" t="n">
         <v>249.6795291235323</v>
@@ -36697,7 +36697,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.6579754225033</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K29" t="n">
         <v>257.5646495407339</v>
@@ -36913,7 +36913,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>379.9148430313199</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378503</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6579754225033</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K32" t="n">
         <v>257.5646495407339</v>
@@ -37150,10 +37150,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
-        <v>247.0876593049807</v>
+        <v>355.3309544215496</v>
       </c>
       <c r="L33" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M33" t="n">
         <v>366.9313322820406</v>
@@ -37168,10 +37168,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R35" t="n">
-        <v>20.29166330939823</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>379.9148430313194</v>
+        <v>355.3309544215504</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378503</v>
@@ -37408,7 +37408,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065817</v>
       </c>
       <c r="K39" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378503</v>
@@ -37639,10 +37639,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P39" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>201.4225882146029</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L42" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M42" t="n">
-        <v>553.5225306839454</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
         <v>391.197099592874</v>
@@ -37879,7 +37879,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>440.6071730376316</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P44" t="n">
         <v>308.7456939637951</v>
@@ -38098,7 +38098,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>379.9148430313203</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378503</v>
